--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.93219253722727</v>
+        <v>71.11367678217344</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.79240514981929</v>
+        <v>97.30086988733125</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.74976157062824</v>
+        <v>88.01461142793701</v>
       </c>
       <c r="AD2" t="n">
-        <v>53932.19253722727</v>
+        <v>71113.67678217344</v>
       </c>
       <c r="AE2" t="n">
-        <v>73792.40514981929</v>
+        <v>97300.86988733124</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.574465360507549e-06</v>
+        <v>1.091983716697603e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66749.76157062824</v>
+        <v>88014.61142793701</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.09503832998188</v>
+        <v>70.82446000728876</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.70102089574407</v>
+        <v>96.90515073659061</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.81236205939373</v>
+        <v>87.65665915754762</v>
       </c>
       <c r="AD3" t="n">
-        <v>45095.03832998188</v>
+        <v>70824.46000728877</v>
       </c>
       <c r="AE3" t="n">
-        <v>61701.02089574406</v>
+        <v>96905.15073659061</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.635019068676487e-06</v>
+        <v>1.100713529319217e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.981481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>55812.36205939373</v>
+        <v>87656.65915754762</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.7923850380004</v>
+        <v>69.54198080198566</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.23287024461993</v>
+        <v>95.15040610890641</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.33906648795963</v>
+        <v>86.06938489432949</v>
       </c>
       <c r="AD2" t="n">
-        <v>52792.3850380004</v>
+        <v>69541.98080198566</v>
       </c>
       <c r="AE2" t="n">
-        <v>72232.87024461993</v>
+        <v>95150.40610890641</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.710557503245594e-06</v>
+        <v>1.128796612165228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>65339.06648795963</v>
+        <v>86069.38489432949</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.02464953124784</v>
+        <v>73.24117487939546</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.44593242041007</v>
+        <v>100.2118066425408</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.91354869469053</v>
+        <v>90.64773246475568</v>
       </c>
       <c r="AD2" t="n">
-        <v>50024.64953124784</v>
+        <v>73241.17487939546</v>
       </c>
       <c r="AE2" t="n">
-        <v>68445.93242041007</v>
+        <v>100211.8066425408</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.532453507309976e-06</v>
+        <v>1.165363532850261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>61913.54869469053</v>
+        <v>90647.73246475568</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.6385279150015</v>
+        <v>66.59620759246987</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.28586790746429</v>
+        <v>91.11986924530692</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.67332191771744</v>
+        <v>82.42351681209664</v>
       </c>
       <c r="AD2" t="n">
-        <v>50638.5279150015</v>
+        <v>66596.20759246987</v>
       </c>
       <c r="AE2" t="n">
-        <v>69285.8679074643</v>
+        <v>91119.86924530691</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.833875901075135e-06</v>
+        <v>1.183928939879785e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.282407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>62673.32191771744</v>
+        <v>82423.51681209664</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.84788922673923</v>
+        <v>72.96560200957236</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.15003410875282</v>
+        <v>99.83475568463203</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.59606594120234</v>
+        <v>90.30666672107527</v>
       </c>
       <c r="AD2" t="n">
-        <v>57847.88922673923</v>
+        <v>72965.60200957237</v>
       </c>
       <c r="AE2" t="n">
-        <v>79150.03410875282</v>
+        <v>99834.75568463202</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.008219935238723e-06</v>
+        <v>1.107640744132392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>71596.06594120234</v>
+        <v>90306.66672107528</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.03582597179787</v>
+        <v>69.89893993065772</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.56595687009748</v>
+        <v>95.63881333668058</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.64036379339171</v>
+        <v>86.51117922176893</v>
       </c>
       <c r="AD2" t="n">
-        <v>53035.82597179787</v>
+        <v>69898.93993065773</v>
       </c>
       <c r="AE2" t="n">
-        <v>72565.95687009748</v>
+        <v>95638.81333668059</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.698958370623923e-06</v>
+        <v>1.12242058474098e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>65640.36379339172</v>
+        <v>86511.17922176892</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.26176363658919</v>
+        <v>80.56784957972029</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.71631533515958</v>
+        <v>110.2364861975955</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.10830208214172</v>
+        <v>99.71567067280532</v>
       </c>
       <c r="AD2" t="n">
-        <v>58261.7636365892</v>
+        <v>80567.84957972029</v>
       </c>
       <c r="AE2" t="n">
-        <v>79716.31533515958</v>
+        <v>110236.4861975955</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.561046124834638e-06</v>
+        <v>1.051233706648488e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.68287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>72108.30208214172</v>
+        <v>99715.67067280531</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.79993856240161</v>
+        <v>68.18111286032661</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.87496119305791</v>
+        <v>93.28840655387303</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.11075437044093</v>
+        <v>84.38509196349513</v>
       </c>
       <c r="AD2" t="n">
-        <v>51799.93856240161</v>
+        <v>68181.11286032661</v>
       </c>
       <c r="AE2" t="n">
-        <v>70874.96119305791</v>
+        <v>93288.40655387304</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.775663005277764e-06</v>
+        <v>1.1545640316558e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>64110.75437044093</v>
+        <v>84385.09196349513</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.35747455168312</v>
+        <v>68.98923544895571</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.63780653034439</v>
+        <v>94.39411553148726</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.80079481939718</v>
+        <v>85.3852736281585</v>
       </c>
       <c r="AD2" t="n">
-        <v>52357.47455168312</v>
+        <v>68989.2354489557</v>
       </c>
       <c r="AE2" t="n">
-        <v>71637.80653034439</v>
+        <v>94394.11553148726</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.777049508695494e-06</v>
+        <v>1.143570395997669e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>64800.79481939719</v>
+        <v>85385.27362815849</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.0318926474984</v>
+        <v>71.11063171813595</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.92881923915061</v>
+        <v>97.2967034963764</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.8731564907322</v>
+        <v>88.01084267148734</v>
       </c>
       <c r="AD2" t="n">
-        <v>54031.8926474984</v>
+        <v>71110.63171813595</v>
       </c>
       <c r="AE2" t="n">
-        <v>73928.81923915062</v>
+        <v>97296.7034963764</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.501558635950555e-06</v>
+        <v>1.085304879163199e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.085648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>66873.1564907322</v>
+        <v>88010.84267148733</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.02141410289957</v>
+        <v>71.10015317353711</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.91448203214975</v>
+        <v>97.28236628937553</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.8601876066451</v>
+        <v>87.99787378740022</v>
       </c>
       <c r="AD3" t="n">
-        <v>54021.41410289957</v>
+        <v>71100.15317353711</v>
       </c>
       <c r="AE3" t="n">
-        <v>73914.48203214975</v>
+        <v>97282.36628937552</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.535068534164838e-06</v>
+        <v>1.090152999106957e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.068287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>66860.18760664509</v>
+        <v>87997.87378740023</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.06470507646956</v>
+        <v>67.17107219684664</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.86898230139404</v>
+        <v>91.90642435825124</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.2007846922969</v>
+        <v>83.13500420899884</v>
       </c>
       <c r="AD2" t="n">
-        <v>51064.70507646957</v>
+        <v>67171.07219684664</v>
       </c>
       <c r="AE2" t="n">
-        <v>69868.98230139405</v>
+        <v>91906.42435825124</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.808508774600904e-06</v>
+        <v>1.1725917485374e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.241898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>63200.7846922969</v>
+        <v>83135.00420899884</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.21110128480178</v>
+        <v>66.01282612353405</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.70104393529327</v>
+        <v>90.32166098253535</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.14431272464461</v>
+        <v>81.7014884256314</v>
       </c>
       <c r="AD2" t="n">
-        <v>50211.10128480178</v>
+        <v>66012.82612353406</v>
       </c>
       <c r="AE2" t="n">
-        <v>68701.04393529327</v>
+        <v>90321.66098253535</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.665029705848013e-06</v>
+        <v>1.175621439142625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.502314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>62144.31272464461</v>
+        <v>81701.4884256314</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.99150230825014</v>
+        <v>72.91094172395243</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.40057892755237</v>
+        <v>99.75996707040525</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.87252367553714</v>
+        <v>90.23901582722382</v>
       </c>
       <c r="AD2" t="n">
-        <v>49991.50230825014</v>
+        <v>72910.94172395243</v>
       </c>
       <c r="AE2" t="n">
-        <v>68400.57892755237</v>
+        <v>99759.96707040526</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.327604683052948e-06</v>
+        <v>1.144923777758925e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.872685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>61872.52367553714</v>
+        <v>90239.01582722382</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.95735614969503</v>
+        <v>88.91796548176045</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.61400863405198</v>
+        <v>121.6614831558757</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.87049623110902</v>
+        <v>110.0502819564748</v>
       </c>
       <c r="AD2" t="n">
-        <v>66957.35614969503</v>
+        <v>88917.96548176045</v>
       </c>
       <c r="AE2" t="n">
-        <v>91614.00863405198</v>
+        <v>121661.4831558757</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.831551292366315e-06</v>
+        <v>9.50353996009233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>82870.49623110902</v>
+        <v>110050.2819564748</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.0966376522178</v>
+        <v>68.6057775846394</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.28091797718426</v>
+        <v>93.86945156456288</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.47796720885431</v>
+        <v>84.91068285386672</v>
       </c>
       <c r="AD2" t="n">
-        <v>52096.6376522178</v>
+        <v>68605.77758463939</v>
       </c>
       <c r="AE2" t="n">
-        <v>71280.91797718426</v>
+        <v>93869.45156456289</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.768993700313082e-06</v>
+        <v>1.147776216520993e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>64477.96720885432</v>
+        <v>84910.68285386672</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.59104780606262</v>
+        <v>70.5637621414551</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.32563587839668</v>
+        <v>96.54845241537906</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.32754010335528</v>
+        <v>87.33400362348316</v>
       </c>
       <c r="AD2" t="n">
-        <v>53591.04780606262</v>
+        <v>70563.7621414551</v>
       </c>
       <c r="AE2" t="n">
-        <v>73325.63587839669</v>
+        <v>96548.45241537906</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.580075543233149e-06</v>
+        <v>1.100755084000893e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>66327.54010335528</v>
+        <v>87334.00362348315</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.66271043876061</v>
+        <v>70.63542477415308</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.42368785398627</v>
+        <v>96.64650439096862</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.41623413601143</v>
+        <v>87.42269765613929</v>
       </c>
       <c r="AD3" t="n">
-        <v>53662.71043876062</v>
+        <v>70635.42477415309</v>
       </c>
       <c r="AE3" t="n">
-        <v>73423.68785398627</v>
+        <v>96646.50439096862</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.574684308849626e-06</v>
+        <v>1.099972185648119e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>66416.23413601142</v>
+        <v>87422.69765613929</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.8795374636049</v>
+        <v>113.4275341992206</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.135927778568</v>
+        <v>155.1965563609463</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.0520778292099</v>
+        <v>140.384814841635</v>
       </c>
       <c r="AD2" t="n">
-        <v>84879.53746360491</v>
+        <v>113427.5341992206</v>
       </c>
       <c r="AE2" t="n">
-        <v>116135.927778568</v>
+        <v>155196.5563609463</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.642743404320525e-06</v>
+        <v>7.739176644798969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.547453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>105052.0778292099</v>
+        <v>140384.814841635</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.43524077790421</v>
+        <v>66.23507138351515</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.00772147809239</v>
+        <v>90.6257467520102</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.42172139318373</v>
+        <v>81.97655267605474</v>
       </c>
       <c r="AD2" t="n">
-        <v>50435.2407779042</v>
+        <v>66235.07138351515</v>
       </c>
       <c r="AE2" t="n">
-        <v>69007.7214780924</v>
+        <v>90625.74675201021</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.75083295261886e-06</v>
+        <v>1.17960439944505e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.386574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>62421.72139318373</v>
+        <v>81976.55267605474</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.3407060566578</v>
+        <v>67.58789701669937</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.24661901879128</v>
+        <v>92.4767424657867</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.54238029140232</v>
+        <v>83.65089195679779</v>
       </c>
       <c r="AD2" t="n">
-        <v>51340.7060566578</v>
+        <v>67587.89701669937</v>
       </c>
       <c r="AE2" t="n">
-        <v>70246.61901879127</v>
+        <v>92476.74246578669</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.829725789433439e-06</v>
+        <v>1.168908136229996e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>63542.38029140233</v>
+        <v>83650.89195679779</v>
       </c>
     </row>
   </sheetData>
